--- a/2025-10-13/12_fixtures.xlsx
+++ b/2025-10-13/12_fixtures.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croatia - Gibraltar: 3:0</t>
+          <t>Croatia ✓ - Gibraltar: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,6 +507,11 @@
           <t>77%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
@@ -522,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bukovyna Chernivtsi - Podillya Khmelnytskyi: 2:0</t>
+          <t>Bukovyna Chernivtsi ✓ - Podillya Khmelnytskyi: 2:0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -541,6 +546,11 @@
           <t>76%</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
@@ -556,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louisville City FC - Miami FC: 1:0</t>
+          <t>Louisville City FC ✓ - Miami FC: 1:0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -575,6 +585,11 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -590,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Netherlands - Finland: 4:0</t>
+          <t>Netherlands ✓ - Finland: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -609,6 +624,11 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scotland - Belarus: 2:1</t>
+          <t>Scotland ✓ - Belarus: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -643,6 +663,11 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
@@ -658,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Romania - Austria: 1:0</t>
+          <t>Romania - Austria X: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -677,6 +702,11 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
@@ -692,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zambia - Niger: 0:1</t>
+          <t>Zambia X - Niger: 0:1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -711,6 +741,11 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
@@ -726,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Egypt - Guinea-Bissau: 1:0</t>
+          <t>Egypt ✓ - Guinea-Bissau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -745,6 +780,11 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
@@ -760,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CD Plaza Amador - CD Árabe Unido: 0:2</t>
+          <t>CD Plaza Amador X - CD Árabe Unido: 0:2</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -779,6 +819,11 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
@@ -794,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Atlético Tembetary - Club Libertad Asunción: 2:1</t>
+          <t>Atlético Tembetary - Club Libertad Asunción X: 2:1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -813,6 +858,11 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
@@ -828,7 +878,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Burkina Faso - Ethiopia: 3:1</t>
+          <t>Burkina Faso ✓ - Ethiopia: 3:1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -847,6 +897,11 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
@@ -862,7 +917,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ghana - Comoros: 1:0</t>
+          <t>Ghana ✓ - Comoros: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -881,6 +936,11 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
@@ -896,7 +956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mali - Madagascar: 4:1</t>
+          <t>Mali ✓ - Madagascar: 4:1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -915,6 +975,11 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
@@ -930,7 +995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima - Yokohama FC: 2:1</t>
+          <t>Sanfrecce Hiroshima ✓ - Yokohama FC: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -949,6 +1014,11 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
@@ -964,7 +1034,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PSS Sleman - Kendal Tornado FC: 3:1</t>
+          <t>PSS Sleman ✓ - Kendal Tornado FC: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -983,6 +1053,11 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
@@ -998,7 +1073,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá - Club Aurora: 2:1</t>
+          <t>Club Deportivo Guabirá ✓ - Club Aurora: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1017,6 +1092,11 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
@@ -1032,7 +1112,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam - Fard Alborz: 0:0</t>
+          <t>Pars Jonoubi Jam  - Fard Alborz: 0:0</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1066,7 +1146,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Antigua GFC - Deportivo Achuapa: 02:00</t>
+          <t>Antigua GFC  - Deportivo Achuapa: 02:00</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1100,7 +1180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CA Estudiantes - Club Deportivo Maipú: 1:0</t>
+          <t>CA Estudiantes ✓ - Club Deportivo Maipú: 1:0</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1119,6 +1199,11 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
@@ -1134,7 +1219,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons - Ansan Greeners: 0:1</t>
+          <t>Jeonnam Dragons X - Ansan Greeners: 0:1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1153,6 +1238,11 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
@@ -1168,7 +1258,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CSD Municipal - Cobán Imperial: 00:00</t>
+          <t>CSD Municipal  - Cobán Imperial: 00:00</t>
         </is>
       </c>
       <c r="C22" t="n">
